--- a/ControlBook Mensal/clientes/META.xlsx
+++ b/ControlBook Mensal/clientes/META.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,734 +574,735 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000473</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 17:14</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 17:39</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 19:17</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44961.81388888889</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>PEDRO BATISTA</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>GW E1 KMG-200 META_TOIP-RS - INOPERANTE</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GW E1 KMG-200 META_TOIP-RS - INOPERANTE META_RS IP: 10.20.20.90  </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM  INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>01:44:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>00:05:50</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>01:49:50</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>00:25:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000515</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 17:03</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 17:03</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="4" t="n">
         <v>44967.70347222222</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>44970.66458333333</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>44972.75694444445</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>CANADA - TELEFONIA TEAMS</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE, A SEGUINTE PROFISSIONAL NÃO ESTÁ CONSEGUINDO REALIZAR LIGAÇÕES INTERNACIONAIS(CANADA E OUTRAS REGIÕES) E TAMBÉM NÃO ESTÁ RECEBENDO. LIGAÇÕES LOCAIS ESTÃO FUNCIONANDO. O CONTATO PODE SER FEITO PELO TEAMS: BEATRIZ.RIGNEL@METAIT.CA OBG.</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>CANADA</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>CHAMADO SENDO TRATADO NO TICKET 202212004699
 CONFIGURAÇÃO EFETUADA POR WESLEY N3</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>06:33:54</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>06:33:54</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="4" t="n">
         <v>3.993055555555555</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000631</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 16:51</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 16:51</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="4" t="n">
         <v>44971.66944444444</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>44971.69236111111</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GERDAU - NÃO CONSEGUE LOGAR NO APP </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, PROFISSIONAL NÃO ESTÁ CONSEGUINDO REALIZAR LOGIN NO APP DO XCONTACT, O MESMO FOI REINSTALADO E O PROBLEMA PERSISTE. NÃO É ERRO DE LOGIN POIS O MESMO FUNCIONA EM OUTRA ESTAÇÃO.SEGUE OS DADOS PARA CONTADO PELO TEAMS: TAIANE FERREIRA LOPESTAIANE.LOPES@META.COM.BR  </t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>GERDAU</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O PROBLEMA ENCONTRA-SE NA REDE DA COLABORADORA E AO TESTAR COM A INTERNET DO CELULAR DELA, ESTÁ FUNCIONANDO NORMALMENTE</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>05:27:42</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>05:27:42</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>23:13:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000687</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE URA</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 14:43</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 18:01</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>44976.85208333333</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>GERDAU - MENSAGEM NA URA</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE, NOS DIAS 20 E 21/02 NÃO TEREMOS EXPEDIENTE PELO NOSSO TIME DE ATENDIMENTO SERVICE DESK FISCAL DA GERDAU, QUE ATENDE O CLIENTE PELO NÚMERO (51) 33232004.NESTE NÚMERO TEMOS ATENDIMENTO TELEFÔNICO, O QUAL, NESTES DIAS 20 E 21/02 DEIXAMOS A SEGUINTE MENSAGEM DENTRO DO HORÁRIO DE ATENDIMENTO, QUE É DAS 07:30 ÀS 17:30. FORA ESTE HORÁRIO DE ATENDIMENTO, DEIXAR A MENSAGEM QUE CONSTA PADRÃO HOJE. MENSAGEM:VOCÊ LIGOU PARA O SERVICE DESK FISCAL.NOS DIAS 20 E 21 DE FEVEREIRO ESTAREMOS ATUANDO EM REGIME DE PLANTÃO, RETORNAMOS NOSSO ATENDIMENTO NORMAL NO DIA 22 DE FEVEREIRO, PROBLEMAS COM NOTA FISCAL NA ENGRENAGEM LIGAR PARA TI NO NÚMERO (51) 33232001, SE FOR OUTRO ASSUNTO DA ÁREA FISCAL URGENTE PODE ENTRAR EM CONTATO PELO WHATSAPP NO NÚMERO (51) 982815523. CONTATO: FLAVIA GALIMBERTINUMERO: (51) 982815523EMAIL/TEAMS: FLAVIA.GALIMBERTI@META.COM.BR</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>GERDAU</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>A MENSAGEM FOI PROGRAMADA CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>03:17:34</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>03:17:34</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="3" t="n">
         <v>8141</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000700</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>22/02/2023 08:23</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>22/02/2023 08:09</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>22/02/2023 08:39</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>22/02/2023 08:43</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44981.38055555556</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>GW E1 KMG-200 META_TOIP-SP</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52879&amp;EVENTID=391689514</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>GATEWAY NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>00:18:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>00:01:49</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>00:19:49</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>00:30:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000709</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>23/02/2023 11:02</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>EQUIPE INFRA META</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>TELEFONIA META - CONFIGURAÇÃO RAMAL</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>BOM DIA PREZADOS, SOLICITO ATRELAR O RAMAL 555121011398 PARA A COLABORADORA FRANCINE DIOGO LAGES E A INSTALAÇÃO DO FUSION. NOME: FRANCINE DIOGO LAGESRAMAL: 555121011398CONTATO: 51 99133-5251E-MAIL: FRANCINE.LAGES@META.COM.BR OBRIGADO!</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>09:59:33</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>09:59:33</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/META.xlsx
+++ b/ControlBook Mensal/clientes/META.xlsx
@@ -63,15 +63,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,857 +455,857 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000473</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 17:14</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 17:39</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 19:17</t>
         </is>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44961.81388888889</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>PEDRO BATISTA</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>GW E1 KMG-200 META_TOIP-RS - INOPERANTE</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GW E1 KMG-200 META_TOIP-RS - INOPERANTE META_RS IP: 10.20.20.90  </t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM  INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>01:44:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>00:05:50</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>01:49:50</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>00:25:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000515</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 17:03</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 17:03</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>44967.70347222222</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>44970.66458333333</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>44972.75694444445</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>CANADA - TELEFONIA TEAMS</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE, A SEGUINTE PROFISSIONAL NÃO ESTÁ CONSEGUINDO REALIZAR LIGAÇÕES INTERNACIONAIS(CANADA E OUTRAS REGIÕES) E TAMBÉM NÃO ESTÁ RECEBENDO. LIGAÇÕES LOCAIS ESTÃO FUNCIONANDO. O CONTATO PODE SER FEITO PELO TEAMS: BEATRIZ.RIGNEL@METAIT.CA OBG.</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>CANADA</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>CHAMADO SENDO TRATADO NO TICKET 202212004699
 CONFIGURAÇÃO EFETUADA POR WESLEY N3</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>06:33:54</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>06:33:54</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>3.993055555555555</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000631</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 16:51</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 16:51</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>44971.66944444444</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>44971.69236111111</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GERDAU - NÃO CONSEGUE LOGAR NO APP </t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, PROFISSIONAL NÃO ESTÁ CONSEGUINDO REALIZAR LOGIN NO APP DO XCONTACT, O MESMO FOI REINSTALADO E O PROBLEMA PERSISTE. NÃO É ERRO DE LOGIN POIS O MESMO FUNCIONA EM OUTRA ESTAÇÃO.SEGUE OS DADOS PARA CONTADO PELO TEAMS: TAIANE FERREIRA LOPESTAIANE.LOPES@META.COM.BR  </t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>GERDAU</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O PROBLEMA ENCONTRA-SE NA REDE DA COLABORADORA E AO TESTAR COM A INTERNET DO CELULAR DELA, ESTÁ FUNCIONANDO NORMALMENTE</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>05:27:42</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>05:27:42</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>23:13:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000687</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE URA</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 14:43</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 18:01</t>
         </is>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>44976.85208333333</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>GERDAU - MENSAGEM NA URA</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE, NOS DIAS 20 E 21/02 NÃO TEREMOS EXPEDIENTE PELO NOSSO TIME DE ATENDIMENTO SERVICE DESK FISCAL DA GERDAU, QUE ATENDE O CLIENTE PELO NÚMERO (51) 33232004.NESTE NÚMERO TEMOS ATENDIMENTO TELEFÔNICO, O QUAL, NESTES DIAS 20 E 21/02 DEIXAMOS A SEGUINTE MENSAGEM DENTRO DO HORÁRIO DE ATENDIMENTO, QUE É DAS 07:30 ÀS 17:30. FORA ESTE HORÁRIO DE ATENDIMENTO, DEIXAR A MENSAGEM QUE CONSTA PADRÃO HOJE. MENSAGEM:VOCÊ LIGOU PARA O SERVICE DESK FISCAL.NOS DIAS 20 E 21 DE FEVEREIRO ESTAREMOS ATUANDO EM REGIME DE PLANTÃO, RETORNAMOS NOSSO ATENDIMENTO NORMAL NO DIA 22 DE FEVEREIRO, PROBLEMAS COM NOTA FISCAL NA ENGRENAGEM LIGAR PARA TI NO NÚMERO (51) 33232001, SE FOR OUTRO ASSUNTO DA ÁREA FISCAL URGENTE PODE ENTRAR EM CONTATO PELO WHATSAPP NO NÚMERO (51) 982815523. CONTATO: FLAVIA GALIMBERTINUMERO: (51) 982815523EMAIL/TEAMS: FLAVIA.GALIMBERTI@META.COM.BR</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>GERDAU</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>A MENSAGEM FOI PROGRAMADA CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>03:17:34</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>03:17:34</t>
         </is>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="4" t="n">
         <v>8141</v>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000700</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>22/02/2023 08:23</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>22/02/2023 08:09</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>22/02/2023 08:39</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>22/02/2023 08:43</t>
         </is>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44981.38055555556</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>GW E1 KMG-200 META_TOIP-SP</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52879&amp;EVENTID=391689514</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>GATEWAY NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>00:18:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>00:01:49</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>00:19:49</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>00:30:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>202302000709</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>23/02/2023 11:02</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" s="5" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>EQUIPE INFRA META</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>TELEFONIA META - CONFIGURAÇÃO RAMAL</t>
         </is>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>BOM DIA PREZADOS, SOLICITO ATRELAR O RAMAL 555121011398 PARA A COLABORADORA FRANCINE DIOGO LAGES E A INSTALAÇÃO DO FUSION. NOME: FRANCINE DIOGO LAGESRAMAL: 555121011398CONTATO: 51 99133-5251E-MAIL: FRANCINE.LAGES@META.COM.BR OBRIGADO!</t>
         </is>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>09:59:33</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>09:59:33</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/ControlBook Mensal/clientes/META.xlsx
+++ b/ControlBook Mensal/clientes/META.xlsx
@@ -63,19 +63,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -460,852 +469,852 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000473</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 17:28</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 17:14</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 17:39</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 19:17</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44961.81388888889</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>PEDRO BATISTA</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>GW E1 KMG-200 META_TOIP-RS - INOPERANTE</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">GW E1 KMG-200 META_TOIP-RS - INOPERANTE META_RS IP: 10.20.20.90  </t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>O GATEWAY NORMALIZOU EM NOSSO MONITORAMENTO SEM  INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE DA NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>01:44:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>00:05:50</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>01:49:50</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>00:25:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000515</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 17:03</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 17:03</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="7" t="n">
         <v>44967.70347222222</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="7" t="n">
         <v>44970.66458333333</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>44972.75694444445</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>CANADA - TELEFONIA TEAMS</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE, A SEGUINTE PROFISSIONAL NÃO ESTÁ CONSEGUINDO REALIZAR LIGAÇÕES INTERNACIONAIS(CANADA E OUTRAS REGIÕES) E TAMBÉM NÃO ESTÁ RECEBENDO. LIGAÇÕES LOCAIS ESTÃO FUNCIONANDO. O CONTATO PODE SER FEITO PELO TEAMS: BEATRIZ.RIGNEL@METAIT.CA OBG.</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>CANADA</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>CHAMADO SENDO TRATADO NO TICKET 202212004699
 CONFIGURAÇÃO EFETUADA POR WESLEY N3</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>06:33:54</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>06:33:54</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="7" t="n">
         <v>3.993055555555555</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000631</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 16:51</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 16:51</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="7" t="n">
         <v>44971.66944444444</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="7" t="n">
         <v>44971.69236111111</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="7" t="n">
         <v>44973.725</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">GERDAU - NÃO CONSEGUE LOGAR NO APP </t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE, PROFISSIONAL NÃO ESTÁ CONSEGUINDO REALIZAR LOGIN NO APP DO XCONTACT, O MESMO FOI REINSTALADO E O PROBLEMA PERSISTE. NÃO É ERRO DE LOGIN POIS O MESMO FUNCIONA EM OUTRA ESTAÇÃO.SEGUE OS DADOS PARA CONTADO PELO TEAMS: TAIANE FERREIRA LOPESTAIANE.LOPES@META.COM.BR  </t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>GERDAU</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O PROBLEMA ENCONTRA-SE NA REDE DA COLABORADORA E AO TESTAR COM A INTERNET DO CELULAR DELA, ESTÁ FUNCIONANDO NORMALMENTE</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>05:27:42</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>05:27:42</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>23:13:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000687</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE URA</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 14:43</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 18:01</t>
         </is>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>44976.85208333333</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>INFRA META</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>GERDAU - MENSAGEM NA URA</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE, NOS DIAS 20 E 21/02 NÃO TEREMOS EXPEDIENTE PELO NOSSO TIME DE ATENDIMENTO SERVICE DESK FISCAL DA GERDAU, QUE ATENDE O CLIENTE PELO NÚMERO (51) 33232004.NESTE NÚMERO TEMOS ATENDIMENTO TELEFÔNICO, O QUAL, NESTES DIAS 20 E 21/02 DEIXAMOS A SEGUINTE MENSAGEM DENTRO DO HORÁRIO DE ATENDIMENTO, QUE É DAS 07:30 ÀS 17:30. FORA ESTE HORÁRIO DE ATENDIMENTO, DEIXAR A MENSAGEM QUE CONSTA PADRÃO HOJE. MENSAGEM:VOCÊ LIGOU PARA O SERVICE DESK FISCAL.NOS DIAS 20 E 21 DE FEVEREIRO ESTAREMOS ATUANDO EM REGIME DE PLANTÃO, RETORNAMOS NOSSO ATENDIMENTO NORMAL NO DIA 22 DE FEVEREIRO, PROBLEMAS COM NOTA FISCAL NA ENGRENAGEM LIGAR PARA TI NO NÚMERO (51) 33232001, SE FOR OUTRO ASSUNTO DA ÁREA FISCAL URGENTE PODE ENTRAR EM CONTATO PELO WHATSAPP NO NÚMERO (51) 982815523. CONTATO: FLAVIA GALIMBERTINUMERO: (51) 982815523EMAIL/TEAMS: FLAVIA.GALIMBERTI@META.COM.BR</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>GERDAU</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>A MENSAGEM FOI PROGRAMADA CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>03:17:34</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>03:17:34</t>
         </is>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="6" t="n">
         <v>8141</v>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000700</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    GATEWAY INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>22/02/2023 08:23</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>22/02/2023 08:09</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>22/02/2023 08:39</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>22/02/2023 08:43</t>
         </is>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44981.38055555556</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>GW E1 KMG-200 META_TOIP-SP</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=52879&amp;EVENTID=391689514</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>SÃO PAULO</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>GATEWAY NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:18:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>00:01:49</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>00:19:49</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>00:30:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="8" t="n">
         <v>202302000709</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE CLIENTE FUSION</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>23/02/2023 11:02</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" s="6" t="inlineStr">
+      <c r="H7" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J7" s="6" t="inlineStr">
+      <c r="J7" s="9" t="inlineStr">
         <is>
           <t>EQUIPE INFRA META</t>
         </is>
       </c>
-      <c r="K7" s="6" t="inlineStr">
+      <c r="K7" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="6" t="inlineStr">
+      <c r="L7" s="9" t="inlineStr">
         <is>
           <t>TELEFONIA META - CONFIGURAÇÃO RAMAL</t>
         </is>
       </c>
-      <c r="M7" s="6" t="inlineStr">
+      <c r="M7" s="9" t="inlineStr">
         <is>
           <t>BOM DIA PREZADOS, SOLICITO ATRELAR O RAMAL 555121011398 PARA A COLABORADORA FRANCINE DIOGO LAGES E A INSTALAÇÃO DO FUSION. NOME: FRANCINE DIOGO LAGESRAMAL: 555121011398CONTATO: 51 99133-5251E-MAIL: FRANCINE.LAGES@META.COM.BR OBRIGADO!</t>
         </is>
       </c>
-      <c r="N7" s="6" t="inlineStr">
+      <c r="N7" s="9" t="inlineStr">
         <is>
           <t>META</t>
         </is>
       </c>
-      <c r="O7" s="6" t="inlineStr">
+      <c r="O7" s="9" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P7" s="6" t="inlineStr">
+      <c r="P7" s="9" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="6" t="inlineStr">
+      <c r="Q7" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R7" s="6" t="inlineStr">
+      <c r="R7" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S7" s="6" t="inlineStr">
+      <c r="S7" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="6" t="inlineStr">
+      <c r="T7" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="6" t="inlineStr">
+      <c r="U7" s="9" t="inlineStr">
         <is>
           <t>09:59:33</t>
         </is>
       </c>
-      <c r="V7" s="6" t="inlineStr">
+      <c r="V7" s="9" t="inlineStr">
         <is>
           <t>09:59:33</t>
         </is>
       </c>
-      <c r="W7" s="6" t="inlineStr">
+      <c r="W7" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
